--- a/biology/Zoologie/Insentiraja/Insentiraja.xlsx
+++ b/biology/Zoologie/Insentiraja/Insentiraja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Insentiraja est un genre de raies de la famille des Arhynchobatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre ce rencontre dans les mers d'Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre ce rencontre dans les mers d'Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (31 juillet 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (31 juillet 2023) :
 Insentiraja laxipella (Yearsley &amp; Last, 1992)
 Insentiraja subtilispinosa (Stehmann, 1989)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Insentiraja Yearsley &amp; Last, 1992[2]. Le genre a été initialement décrit comme un sous-genre de Pavoraja pour l'espèce type Insentiraja laxipella, initialement nommée sous le protonyme Pavoraja (Insentiraja) laxipella[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Insentiraja Yearsley &amp; Last, 1992. Le genre a été initialement décrit comme un sous-genre de Pavoraja pour l'espèce type Insentiraja laxipella, initialement nommée sous le protonyme Pavoraja (Insentiraja) laxipella.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Insentiraja, est la combinaison du latin in-, « absence », sentis, « épine », et Raja, le genre initial donné aux raies, et fait référence à l'absence d'épines sur la queue et au centre du disque de ces espèces[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Insentiraja, est la combinaison du latin in-, « absence », sentis, « épine », et Raja, le genre initial donné aux raies, et fait référence à l'absence d'épines sur la queue et au centre du disque de ces espèces.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Peter Robert Last et Gordon K. Yearsley, « Pavoraja (Insentiraja) laxipella, a New Subgenus and Species of Skate (Chondrichthyes: Rajoidei) from the Western Pacific », Copeia, Société américaine des ichtyologistes et des herpétologistes, vol. 1992, no 3,‎ 18 août 1992, p. 839 (ISSN 0045-8511 et 1938-5110, OCLC 1565060, DOI 10.2307/1446161, JSTOR 1446161)</t>
         </is>
